--- a/src/excel_template/posQC_trend/Screen Linearity Trend format.xlsx
+++ b/src/excel_template/posQC_trend/Screen Linearity Trend format.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5640" yWindow="450" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="5640" yWindow="450" windowWidth="20730" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Trend" sheetId="1" r:id="rId1"/>
@@ -274,6 +274,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -472,6 +473,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_);[Red]\(0.00\)" sourceLinked="1"/>
@@ -495,6 +497,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -554,6 +557,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -788,6 +792,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -847,6 +852,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1081,6 +1087,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1140,6 +1147,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1374,6 +1382,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1831,11 +1840,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BL997"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A34" sqref="A34"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -8944,9 +8953,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData/>
@@ -8961,9 +8968,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData/>
